--- a/resources/imports/cuentas_contables.xlsx
+++ b/resources/imports/cuentas_contables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\React\gasomax\gasomax-server\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736DB20-4A35-4FB8-8A52-FE1A4E7B4CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99812E51-C6AA-4DC1-870C-EBA8E2B7023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{85E15BD0-7D16-4582-A8F3-37C5295221B5}"/>
+    <workbookView xWindow="3930" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{85E15BD0-7D16-4582-A8F3-37C5295221B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,6 @@
     <t>NORMATIVIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">GESTIORIA </t>
-  </si>
-  <si>
     <t xml:space="preserve">SISTEMAS </t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>OPERACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTORIA </t>
   </si>
 </sst>
 </file>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A7647E-9003-431E-BBCD-AB64866CF2DE}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
         <v>34</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
         <v>35</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
         <v>36</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
         <v>39</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
         <v>40</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115" t="s">
         <v>42</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
         <v>43</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
         <v>44</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
         <v>45</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
         <v>47</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
         <v>24</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
         <v>49</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
         <v>50</v>
